--- a/Projeto/Results/Logistic_Regression.xlsx
+++ b/Projeto/Results/Logistic_Regression.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,18 +453,18 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16018</v>
+        <v>16020</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>19092</v>
+        <v>19093</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9998291377150017</v>
+        <v>0.9999145688575009</v>
       </c>
     </row>
     <row r="37">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9997905320485966</v>
+        <v>0.9998952605394082</v>
       </c>
     </row>
     <row r="41">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9998952550539436</v>
+        <v>0.9999476275269719</v>
       </c>
     </row>
     <row r="45">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9998428908091124</v>
+        <v>0.9999214433475608</v>
       </c>
     </row>
     <row r="49">
@@ -671,8 +671,49 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0:01:26.229654</t>
-        </is>
+          <t>0:01:28.510974</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Melhores Parâmetros</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>solver</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>liblinear</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>penalty</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto/Results/Logistic_Regression.xlsx
+++ b/Projeto/Results/Logistic_Regression.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,9 +481,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-    </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -498,9 +496,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -522,9 +518,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-    </row>
+    <row r="18"/>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
@@ -539,9 +533,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-    </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -556,9 +548,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
@@ -580,9 +570,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-    </row>
+    <row r="29"/>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
@@ -713,6 +701,301 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Matriz de Confusão (Teste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3994</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Matriz de Confusão (Treino)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>16021</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19093</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Relatório de Classificação (Teste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         0.0       1.00      1.00      1.00      3996</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         1.0       1.00      1.00      1.00      4783</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    accuracy                           1.00      8779</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   macro avg       1.00      1.00      1.00      8779</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>weighted avg       1.00      1.00      1.00      8779</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Relatório de Classificação (Treino)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         0.0       1.00      1.00      1.00     16022</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         1.0       1.00      1.00      1.00     19094</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    accuracy                           1.00     35116</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   macro avg       1.00      1.00      1.00     35116</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>weighted avg       1.00      1.00      1.00     35116</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Acurácia (Teste)</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9997721836200023</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Acurácia (Treino)</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9999430459050006</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Precision (Teste)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9995820271682341</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Precision (Treino)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9999476275269719</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Recall (Teste)</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Recall (Treino)</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9999476275269719</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>F1-score (Teste)</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9997909698996655</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>F1-score (Treino)</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9999476275269719</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tempo de execução</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0:01:24.054741</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Melhores Parâmetros</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>solver</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>liblinear</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>penalty</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Projeto/Results/Logistic_Regression.xlsx
+++ b/Projeto/Results/Logistic_Regression.xlsx
@@ -1,124 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Ciber_group6\Projeto\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E1C595-CB15-413A-B5CF-14CC47C6A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Matriz de Confusão (Teste)</t>
-  </si>
-  <si>
-    <t>Matriz de Confusão (Treino)</t>
-  </si>
-  <si>
-    <t>Relatório de Classificação (Teste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              precision    recall  f1-score   support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         0.0       1.00      1.00      1.00      3996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         1.0       1.00      1.00      1.00      4783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    accuracy                           1.00      8779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   macro avg       1.00      1.00      1.00      8779</t>
-  </si>
-  <si>
-    <t>weighted avg       1.00      1.00      1.00      8779</t>
-  </si>
-  <si>
-    <t>Relatório de Classificação (Treino)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         0.0       1.00      1.00      1.00     16022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         1.0       1.00      1.00      1.00     19094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    accuracy                           1.00     35116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   macro avg       1.00      1.00      1.00     35116</t>
-  </si>
-  <si>
-    <t>weighted avg       1.00      1.00      1.00     35116</t>
-  </si>
-  <si>
-    <t>Acurácia (Teste)</t>
-  </si>
-  <si>
-    <t>Acurácia (Treino)</t>
-  </si>
-  <si>
-    <t>Precision (Teste)</t>
-  </si>
-  <si>
-    <t>Precision (Treino)</t>
-  </si>
-  <si>
-    <t>Recall (Teste)</t>
-  </si>
-  <si>
-    <t>Recall (Treino)</t>
-  </si>
-  <si>
-    <t>F1-score (Teste)</t>
-  </si>
-  <si>
-    <t>F1-score (Treino)</t>
-  </si>
-  <si>
-    <t>Tempo de execução</t>
-  </si>
-  <si>
-    <t>0:01:23.059095</t>
-  </si>
-  <si>
-    <t>Melhores Parâmetros</t>
-  </si>
-  <si>
-    <t>{'solver': 'liblinear', 'penalty': 'l1', 'C': 10}</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,206 +408,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Matriz de Confusão (Teste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3994</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3994</v>
-      </c>
-      <c r="B4">
+      <c r="B5" t="n">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Matriz de Confusão (Treino)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16019</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" t="n">
+        <v>19092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Relatório de Classificação (Teste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         0.0       1.00      1.00      1.00      3996</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         1.0       1.00      1.00      1.00      4783</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    accuracy                           1.00      8779</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   macro avg       1.00      1.00      1.00      8779</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>weighted avg       1.00      1.00      1.00      8779</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Relatório de Classificação (Treino)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         0.0       1.00      1.00      1.00     16022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         1.0       1.00      1.00      1.00     19094</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    accuracy                           1.00     35116</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   macro avg       1.00      1.00      1.00     35116</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>weighted avg       1.00      1.00      1.00     35116</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Acurácia (Teste)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9997721836200023</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Acurácia (Treino)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9998576147625015</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Precision (Teste)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9995820271682341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Precision (Treino)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9998428908091124</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Recall (Teste)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16021</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>19094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>0.99977218362000231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <v>0.99997152295250025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>0.99958202716823408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>0.99994763026970412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>0.99979096989966554</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>0.99997381444918698</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Recall (Treino)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9998952550539436</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>F1-score (Teste)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9997909698996655</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>F1-score (Treino)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9998690722459347</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tempo de execução</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0:01:25.847789</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Melhores Parâmetros</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>{'solver': 'liblinear', 'penalty': 'l1', 'C': 10}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Projeto/Results/Logistic_Regression.xlsx
+++ b/Projeto/Results/Logistic_Regression.xlsx
@@ -453,18 +453,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16019</v>
+        <v>16021</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>19092</v>
+        <v>19094</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9998576147625015</v>
+        <v>0.9999715229525002</v>
       </c>
     </row>
     <row r="37">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9998428908091124</v>
+        <v>0.9999476302697041</v>
       </c>
     </row>
     <row r="41">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9998952550539436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9998690722459347</v>
+        <v>0.999973814449187</v>
       </c>
     </row>
     <row r="49">
@@ -671,7 +671,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0:01:25.847789</t>
+          <t>0:01:21.781927</t>
         </is>
       </c>
     </row>

--- a/Projeto/Results/Logistic_Regression.xlsx
+++ b/Projeto/Results/Logistic_Regression.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,10 +461,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>19094</v>
+        <v>19093</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999715229525002</v>
+        <v>0.9999430459050006</v>
       </c>
     </row>
     <row r="37">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999476302697041</v>
+        <v>0.9999476275269719</v>
       </c>
     </row>
     <row r="41">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0.9999476275269719</v>
       </c>
     </row>
     <row r="45">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.999973814449187</v>
+        <v>0.9999476275269719</v>
       </c>
     </row>
     <row r="49">
@@ -671,7 +671,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0:01:21.781927</t>
+          <t>0:05:21.054732</t>
         </is>
       </c>
     </row>

--- a/Projeto/Results/Logistic_Regression.xlsx
+++ b/Projeto/Results/Logistic_Regression.xlsx
@@ -1,34 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\GitHub\Ciber_group6\Projeto\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308708B-9FDC-47AD-90FF-B6FC93476D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>Matriz de Confusão (Teste)</t>
+  </si>
+  <si>
+    <t>Matriz de Confusão (Treino)</t>
+  </si>
+  <si>
+    <t>Relatório de Classificação (Teste)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0       1.00      1.00      1.00      3996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.0       1.00      1.00      1.00      4783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           1.00      8779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       1.00      1.00      1.00      8779</t>
+  </si>
+  <si>
+    <t>weighted avg       1.00      1.00      1.00      8779</t>
+  </si>
+  <si>
+    <t>Relatório de Classificação (Treino)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0       1.00      1.00      1.00     16022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.0       1.00      1.00      1.00     19094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           1.00     35116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       1.00      1.00      1.00     35116</t>
+  </si>
+  <si>
+    <t>weighted avg       1.00      1.00      1.00     35116</t>
+  </si>
+  <si>
+    <t>Acurácia (Teste)</t>
+  </si>
+  <si>
+    <t>Acurácia (Treino)</t>
+  </si>
+  <si>
+    <t>Precision (Teste)</t>
+  </si>
+  <si>
+    <t>Precision (Treino)</t>
+  </si>
+  <si>
+    <t>Recall (Teste)</t>
+  </si>
+  <si>
+    <t>Recall (Treino)</t>
+  </si>
+  <si>
+    <t>F1-score (Teste)</t>
+  </si>
+  <si>
+    <t>F1-score (Treino)</t>
+  </si>
+  <si>
+    <t>Tempo de execução</t>
+  </si>
+  <si>
+    <t>0:05:21.054732</t>
+  </si>
+  <si>
+    <t>Melhores Parâmetros</t>
+  </si>
+  <si>
+    <t>{'solver': 'liblinear', 'penalty': 'l1', 'C': 10}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +138,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,283 +440,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Matriz de Confusão (Teste)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3994</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4783</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Matriz de Confusão (Treino)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>16021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>19093</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Relatório de Classificação (Teste)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         0.0       1.00      1.00      1.00      3996</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         1.0       1.00      1.00      1.00      4783</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    accuracy                           1.00      8779</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   macro avg       1.00      1.00      1.00      8779</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>weighted avg       1.00      1.00      1.00      8779</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Relatório de Classificação (Treino)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         0.0       1.00      1.00      1.00     16022</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         1.0       1.00      1.00      1.00     19094</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    accuracy                           1.00     35116</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   macro avg       1.00      1.00      1.00     35116</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>weighted avg       1.00      1.00      1.00     35116</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Acurácia (Teste)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.9997721836200023</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Acurácia (Treino)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0.99977218362000231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
         <v>0.9999430459050006</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Precision (Teste)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9995820271682341</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Precision (Treino)</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9999476275269719</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Recall (Teste)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0.99958202716823408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>0.99994762752697186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Recall (Treino)</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.9999476275269719</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>F1-score (Teste)</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.9997909698996655</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>F1-score (Treino)</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.9999476275269719</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Tempo de execução</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0:05:21.054732</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Melhores Parâmetros</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>{'solver': 'liblinear', 'penalty': 'l1', 'C': 10}</t>
-        </is>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>0.99994762752697186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>0.99979096989966554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>0.99994762752697186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
